--- a/Test Data/TC_51844_Verify_Device_Order_Of_Sounders_Added_In_LPS800.xlsx
+++ b/Test Data/TC_51844_Verify_Device_Order_Of_Sounders_Added_In_LPS800.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A1E64E-4E8F-47E9-86ED-EDA873E9B994}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Label</t>
   </si>
@@ -69,9 +68,6 @@
     <t>Generic Sounder</t>
   </si>
   <si>
-    <t>1/2</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -94,12 +90,21 @@
   </si>
   <si>
     <t>To verify Sounders DeviceOrder In LPS800</t>
+  </si>
+  <si>
+    <t>Flashni Sounder</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>Row</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -203,11 +208,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -233,6 +249,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,11 +529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,7 +547,7 @@
     <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -538,91 +555,100 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -633,7 +659,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
